--- a/Base de Datos/Subida de Datos/Nacionalidad/Nacionalidad.xlsx
+++ b/Base de Datos/Subida de Datos/Nacionalidad/Nacionalidad.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerb\OneDrive\Documents\java Cuarto\JJ\Nacionalidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EA5259-D3DA-49DA-AA13-C310F5BB9690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B73D00-BDF2-4BA4-97E3-B42B74423365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$80</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>id_nacionalidad</t>
   </si>
@@ -33,140 +36,380 @@
     <t>tipo_nacionalidad</t>
   </si>
   <si>
-    <t>VENEZOLANO</t>
-  </si>
-  <si>
-    <t>ECUATORIANO</t>
-  </si>
-  <si>
-    <t>COLOMBIANO</t>
-  </si>
-  <si>
     <t>SIN DATO</t>
   </si>
   <si>
-    <t>PERUANO</t>
-  </si>
-  <si>
-    <t>DOMINICANO</t>
-  </si>
-  <si>
-    <t>CUBANO</t>
-  </si>
-  <si>
-    <t>CHILENO</t>
-  </si>
-  <si>
-    <t>ESPAÑOL</t>
-  </si>
-  <si>
-    <t>ARGENTINO</t>
-  </si>
-  <si>
-    <t>NIGERIANO</t>
-  </si>
-  <si>
     <t>CANADIENSE</t>
   </si>
   <si>
-    <t>AUSTRALIANO</t>
-  </si>
-  <si>
-    <t>ECUATOGUINEANO</t>
-  </si>
-  <si>
-    <t>MEXICANO</t>
-  </si>
-  <si>
-    <t>CHINO</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>ESTADOUNIDENCE</t>
-  </si>
-  <si>
-    <t>GEORGIANO</t>
-  </si>
-  <si>
-    <t>BOLIVIANO</t>
-  </si>
-  <si>
-    <t>GRIEGO</t>
-  </si>
-  <si>
-    <t>ALEMÁN</t>
-  </si>
-  <si>
-    <t>ITALIANO</t>
-  </si>
-  <si>
-    <t>BIELORUSO</t>
-  </si>
-  <si>
-    <t>LIBANÉS</t>
-  </si>
-  <si>
-    <t>KIRGUÍS</t>
-  </si>
-  <si>
-    <t>ALBANO</t>
-  </si>
-  <si>
-    <t>SERBIO</t>
-  </si>
-  <si>
     <t>INDIO/HINDÚ</t>
   </si>
   <si>
     <t>TAIWANES</t>
   </si>
   <si>
-    <t>HAITIANO</t>
-  </si>
-  <si>
-    <t>RUSO</t>
-  </si>
-  <si>
-    <t>URUGUAYO</t>
-  </si>
-  <si>
     <t>ISRAELÍ</t>
   </si>
   <si>
     <t>VANUATUENSE</t>
   </si>
   <si>
-    <t>PANAMEÑO</t>
-  </si>
-  <si>
-    <t>RUMANO</t>
-  </si>
-  <si>
     <t>PALAUANO</t>
   </si>
   <si>
-    <t>ESTONIO</t>
-  </si>
-  <si>
-    <t>BRITÁNICO</t>
-  </si>
-  <si>
     <t>CROATA</t>
+  </si>
+  <si>
+    <t>AFRICANA</t>
+  </si>
+  <si>
+    <t>ALBANA</t>
+  </si>
+  <si>
+    <t>ALEMANA</t>
+  </si>
+  <si>
+    <t>ARGELINA</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>AUSTRALIANA</t>
+  </si>
+  <si>
+    <t>BIELORUSA</t>
+  </si>
+  <si>
+    <t>BOLIVIANA</t>
+  </si>
+  <si>
+    <t>BRITANICA</t>
+  </si>
+  <si>
+    <t>CHILENA</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>COLOMBIANA</t>
+  </si>
+  <si>
+    <t>CUBANA</t>
+  </si>
+  <si>
+    <t>DOMINICANA</t>
+  </si>
+  <si>
+    <t>ECUATOGUINEANA</t>
+  </si>
+  <si>
+    <t>ECUATORIANA</t>
+  </si>
+  <si>
+    <t>ESPAÑOLA</t>
+  </si>
+  <si>
+    <t>ESTONIANA</t>
+  </si>
+  <si>
+    <t>GEORGIANA</t>
+  </si>
+  <si>
+    <t>GRIEGA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>HAITIANA</t>
+  </si>
+  <si>
+    <t>HINDU</t>
+  </si>
+  <si>
+    <t>ITALIANA</t>
+  </si>
+  <si>
+    <t>KIRGUISA</t>
+  </si>
+  <si>
+    <t>LIBANESA</t>
+  </si>
+  <si>
+    <t>MEXICANA</t>
+  </si>
+  <si>
+    <t>NIGERIANA</t>
+  </si>
+  <si>
+    <t>PANAMEÑA</t>
+  </si>
+  <si>
+    <t>PERUANA</t>
+  </si>
+  <si>
+    <t>RUMANA</t>
+  </si>
+  <si>
+    <t>RUSA</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>URUGUAYA</t>
+  </si>
+  <si>
+    <t>VENEZOLANA</t>
+  </si>
+  <si>
+    <t>ARMENIA</t>
+  </si>
+  <si>
+    <t>ASIATICA</t>
+  </si>
+  <si>
+    <t>AUSTRIACA</t>
+  </si>
+  <si>
+    <t>AZERBAIYANA</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>BARBADENSE</t>
+  </si>
+  <si>
+    <t>BRASILEÑA</t>
+  </si>
+  <si>
+    <t>BULGARA</t>
+  </si>
+  <si>
+    <t>BUTANESA</t>
+  </si>
+  <si>
+    <t>CABOVERDIANA</t>
+  </si>
+  <si>
+    <t>CAMBOYANA</t>
+  </si>
+  <si>
+    <t>CAMERUNÉS</t>
+  </si>
+  <si>
+    <t>CEILANDÉS</t>
+  </si>
+  <si>
+    <t>CHADIANA</t>
+  </si>
+  <si>
+    <t>CISKEINA</t>
+  </si>
+  <si>
+    <t>COMORENSE</t>
+  </si>
+  <si>
+    <t>CONGOLEÑA</t>
+  </si>
+  <si>
+    <t>COREANA</t>
+  </si>
+  <si>
+    <t>MARFILEÑA</t>
+  </si>
+  <si>
+    <t>COSTARRICENSE</t>
+  </si>
+  <si>
+    <t>EGIPCIA</t>
+  </si>
+  <si>
+    <t>SALVADOREÑA</t>
+  </si>
+  <si>
+    <t>ESLOVACA</t>
+  </si>
+  <si>
+    <t>ESTADOUNIDENSE</t>
+  </si>
+  <si>
+    <t>ETÍOPE</t>
+  </si>
+  <si>
+    <t>FILIPINA</t>
+  </si>
+  <si>
+    <t>FRANCESA</t>
+  </si>
+  <si>
+    <t>GHANESA</t>
+  </si>
+  <si>
+    <t>GUINEANA</t>
+  </si>
+  <si>
+    <t>HONDUREÑA</t>
+  </si>
+  <si>
+    <t>INDU</t>
+  </si>
+  <si>
+    <t>INDONESA</t>
+  </si>
+  <si>
+    <t>INGLESA</t>
+  </si>
+  <si>
+    <t>IRANÍ</t>
+  </si>
+  <si>
+    <t>IRLANDESA</t>
+  </si>
+  <si>
+    <t>JAPONESA</t>
+  </si>
+  <si>
+    <t>JORDANA</t>
+  </si>
+  <si>
+    <t>LETONIA</t>
+  </si>
+  <si>
+    <t>LIBIA</t>
+  </si>
+  <si>
+    <t>LITUANA</t>
+  </si>
+  <si>
+    <t>MACEDONIA</t>
+  </si>
+  <si>
+    <t>MALASIO</t>
+  </si>
+  <si>
+    <t>MARROQUÍ</t>
+  </si>
+  <si>
+    <t>MOLDAVIA</t>
+  </si>
+  <si>
+    <t>NEOZELANDESA</t>
+  </si>
+  <si>
+    <t>NICARAGUENSE</t>
+  </si>
+  <si>
+    <t>NORUEGA</t>
+  </si>
+  <si>
+    <t>PAKISTANI</t>
+  </si>
+  <si>
+    <t>PALESTINA</t>
+  </si>
+  <si>
+    <t>PAPÚ</t>
+  </si>
+  <si>
+    <t>PARAGUAYA</t>
+  </si>
+  <si>
+    <t>POLOCA</t>
+  </si>
+  <si>
+    <t>PORTUGUESA</t>
+  </si>
+  <si>
+    <t>PUERTORRIQUEÑA</t>
+  </si>
+  <si>
+    <t>SALOMONENSE</t>
+  </si>
+  <si>
+    <t>SAMOANA</t>
+  </si>
+  <si>
+    <t>SE DESCONOCE</t>
+  </si>
+  <si>
+    <t>SENEGALESA</t>
+  </si>
+  <si>
+    <t>SIERRALEONÉS</t>
+  </si>
+  <si>
+    <t>SINGAPURENSE</t>
+  </si>
+  <si>
+    <t>SIRIA</t>
+  </si>
+  <si>
+    <t>SUDAFRICANA</t>
+  </si>
+  <si>
+    <t>SUECA</t>
+  </si>
+  <si>
+    <t>SURCOREANA</t>
+  </si>
+  <si>
+    <t>TOGOLÉS</t>
+  </si>
+  <si>
+    <t>TURCA</t>
+  </si>
+  <si>
+    <t>UCRANIANA</t>
+  </si>
+  <si>
+    <t>UGANDÉS</t>
+  </si>
+  <si>
+    <t>UZBECA</t>
+  </si>
+  <si>
+    <t>VATICANA</t>
+  </si>
+  <si>
+    <t>VIETNAMITA</t>
+  </si>
+  <si>
+    <t>YUGOSLAVA</t>
+  </si>
+  <si>
+    <t>YAMANÍ</t>
+  </si>
+  <si>
+    <t>HOLANDESA</t>
+  </si>
+  <si>
+    <t>BELGA</t>
+  </si>
+  <si>
+    <t>DANESA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,8 +432,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,15 +718,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,212 +738,610 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B80" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B80">
+      <sortCondition ref="A2:A80"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B80">
+    <sortCondition ref="B1:B80"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>